--- a/mapper.xlsx
+++ b/mapper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VL1251\handsontable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VL1251\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A81CA-5DB4-4572-A05C-9F3E41DD8049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A53A28-EA3C-4127-9C52-5975E36418C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
   <si>
     <t>Name</t>
   </si>
@@ -1371,6 +1371,9 @@
   </si>
   <si>
     <t xml:space="preserve">CDPU BÓNG MÀU </t>
+  </si>
+  <si>
+    <t>Material Name</t>
   </si>
 </sst>
 </file>
@@ -5036,7 +5039,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5050,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>393</v>

--- a/mapper.xlsx
+++ b/mapper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VL1251\sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VL1251\systemsheet\sheet_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A53A28-EA3C-4127-9C52-5975E36418C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E349A-400E-4D1F-80DD-E44FC7862649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="398">
   <si>
     <t>Name</t>
   </si>
@@ -1349,9 +1349,6 @@
     <t>ready-mixed</t>
   </si>
   <si>
-    <t>CDPU BÓNGTRONG</t>
-  </si>
-  <si>
     <t>per_m2</t>
   </si>
   <si>
@@ -1374,6 +1371,12 @@
   </si>
   <si>
     <t>Material Name</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>CDPU BÓNG TRONG</t>
   </si>
 </sst>
 </file>
@@ -5036,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316CAF4-628E-468C-8B8F-1E06B683C47B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5049,26 +5052,27 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>233</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -5095,10 +5099,11 @@
       <c r="E3">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5112,10 +5117,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5129,10 +5136,11 @@
       <c r="E5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -5147,9 +5155,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5164,9 +5172,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5181,9 +5189,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
@@ -5198,9 +5206,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -5215,9 +5223,9 @@
         <v>78.947368421052602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -5232,9 +5240,9 @@
         <v>39.473684210526315</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -5249,9 +5257,9 @@
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -5260,15 +5268,15 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -5277,15 +5285,15 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5294,11 +5302,48 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>456</v>
       </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5311,13 +5356,13 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" customWidth="1"/>
     <col min="3" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5347,11 +5392,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
@@ -5367,11 +5412,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>267</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
@@ -5387,11 +5432,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>268</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -5470,11 +5515,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
@@ -5490,11 +5535,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
